--- a/data/barcode_runs.xlsx
+++ b/data/barcode_runs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/agreaney/2022/SARS-CoV-2-RBD_Beta_mosaic_np_vaccine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6D36DF-4C4B-AA4E-8AE9-1BFB68522C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E2F7CD-6BB3-4B4C-92ED-00B4B0522C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1460" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="barcode_runs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="54">
   <si>
     <t>date</t>
   </si>
@@ -142,12 +142,63 @@
   </si>
   <si>
     <t>homotypic_6883</t>
+  </si>
+  <si>
+    <t>beta_27-34</t>
+  </si>
+  <si>
+    <t>beta_27</t>
+  </si>
+  <si>
+    <t>beta_28</t>
+  </si>
+  <si>
+    <t>beta_29</t>
+  </si>
+  <si>
+    <t>beta_30</t>
+  </si>
+  <si>
+    <t>beta_31</t>
+  </si>
+  <si>
+    <t>beta_32</t>
+  </si>
+  <si>
+    <t>beta_33</t>
+  </si>
+  <si>
+    <t>beta_34</t>
+  </si>
+  <si>
+    <t>homotypic_6880</t>
+  </si>
+  <si>
+    <t>homotypic_6882</t>
+  </si>
+  <si>
+    <t>homotypic_6884</t>
+  </si>
+  <si>
+    <t>homotypic_6885</t>
+  </si>
+  <si>
+    <t>NHP_mosaic_MA292</t>
+  </si>
+  <si>
+    <t>NHP_mosaic_AO2</t>
+  </si>
+  <si>
+    <t>NHP_mosaic_0Z5</t>
+  </si>
+  <si>
+    <t>NHP_mosaic_AT5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -988,11 +1039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1746,6 +1797,714 @@
         <v>/shared/ngs/illumina/agreaney/220124_D00300_1402_BHNKFCBCX3/Unaligned/Project_agreaney/beta_26_lib2_abneg*R1*.fastq.gz</v>
       </c>
     </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>220210</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ref="H20:H37" si="2">B20&amp;"-"&amp;D20&amp;"-"&amp;E20&amp;"-"&amp;F20</f>
+        <v>beta_27-34-none-0-ref</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="str">
+        <f>"/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/"&amp;B20&amp;"_"&amp;C20&amp;"_"&amp;F20&amp;"*R1*.fastq.gz"</f>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_27-34_lib1_ref*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>220210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_27-34-none-0-ref</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L37" si="3">"/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/"&amp;B21&amp;"_"&amp;C21&amp;"_"&amp;F21&amp;"*R1*.fastq.gz"</f>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_27-34_lib2_ref*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>220210</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>5000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_27-homotypic_6880-5000-abneg</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1012281</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_27_lib1_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>220210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>5000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_27-homotypic_6880-5000-abneg</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1">
+        <v>768288</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_27_lib2_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>220210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>5000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_28-homotypic_6882-5000-abneg</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="1">
+        <v>812393</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_28_lib1_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>220210</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>5000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_28-homotypic_6882-5000-abneg</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1">
+        <v>728487</v>
+      </c>
+      <c r="K25" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_28_lib2_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>220210</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>5000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_29-homotypic_6884-5000-abneg</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="1">
+        <v>802387</v>
+      </c>
+      <c r="K26" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_29_lib1_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>220210</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <v>5000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_29-homotypic_6884-5000-abneg</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="1">
+        <v>638644</v>
+      </c>
+      <c r="K27" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_29_lib2_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>220210</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28">
+        <v>5000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_30-homotypic_6885-5000-abneg</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1">
+        <v>901855</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_30_lib1_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>220210</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <v>5000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_30-homotypic_6885-5000-abneg</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1">
+        <v>729795</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_30_lib2_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>220210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_31-NHP_mosaic_MA292-1000-abneg</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1076671</v>
+      </c>
+      <c r="K30" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_31_lib1_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>220210</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_31-NHP_mosaic_MA292-1000-abneg</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="1">
+        <v>804993</v>
+      </c>
+      <c r="K31" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_31_lib2_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>220210</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_32-NHP_mosaic_AO2-1000-abneg</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="1">
+        <v>873108</v>
+      </c>
+      <c r="K32" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_32_lib1_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>220210</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_32-NHP_mosaic_AO2-1000-abneg</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1">
+        <v>721759</v>
+      </c>
+      <c r="K33" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_32_lib2_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>220210</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_33-NHP_mosaic_0Z5-1000-abneg</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="1">
+        <v>809798</v>
+      </c>
+      <c r="K34" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_33_lib1_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>220210</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_33-NHP_mosaic_0Z5-1000-abneg</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="1">
+        <v>803102</v>
+      </c>
+      <c r="K35" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_33_lib2_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>220210</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36">
+        <v>1000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_34-NHP_mosaic_AT5-1000-abneg</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="1">
+        <v>821781</v>
+      </c>
+      <c r="K36" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_34_lib1_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>220210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37">
+        <v>1000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>beta_34-NHP_mosaic_AT5-1000-abneg</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1">
+        <v>853365</v>
+      </c>
+      <c r="K37" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="3"/>
+        <v>/shared/ngs/illumina/agreaney/220218_VH00699_65_AAAW23WM5/Unaligned/Project_agreaney/beta_34_lib2_abneg*R1*.fastq.gz</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
